--- a/Excel-XLSX/UN-ARE.xlsx
+++ b/Excel-XLSX/UN-ARE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1641">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9w6Z52</t>
+    <t>3ng8Mh</t>
   </si>
   <si>
     <t>1964</t>
@@ -4800,19 +4800,19 @@
     <t>1078</t>
   </si>
   <si>
-    <t>21907</t>
-  </si>
-  <si>
-    <t>15241</t>
+    <t>22353</t>
+  </si>
+  <si>
+    <t>16907</t>
   </si>
   <si>
     <t>1079</t>
   </si>
   <si>
-    <t>5909</t>
-  </si>
-  <si>
-    <t>12559</t>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>12274</t>
   </si>
   <si>
     <t>1080</t>
@@ -4830,10 +4830,10 @@
     <t>1084</t>
   </si>
   <si>
-    <t>4344</t>
-  </si>
-  <si>
-    <t>1349</t>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>1122</t>
   </si>
   <si>
     <t>1086</t>
@@ -4878,42 +4878,45 @@
     <t>1100</t>
   </si>
   <si>
+    <t>3986</t>
+  </si>
+  <si>
+    <t>3909</t>
+  </si>
+  <si>
     <t>1101</t>
   </si>
   <si>
-    <t>4739</t>
-  </si>
-  <si>
-    <t>3347</t>
+    <t>26571</t>
+  </si>
+  <si>
+    <t>19592</t>
   </si>
   <si>
     <t>1102</t>
   </si>
   <si>
-    <t>26952</t>
-  </si>
-  <si>
-    <t>16371</t>
-  </si>
-  <si>
     <t>1103</t>
   </si>
   <si>
+    <t>27696</t>
+  </si>
+  <si>
+    <t>575006</t>
+  </si>
+  <si>
     <t>1104</t>
   </si>
   <si>
-    <t>27060</t>
-  </si>
-  <si>
-    <t>375158</t>
+    <t>147797</t>
+  </si>
+  <si>
+    <t>9440</t>
   </si>
   <si>
     <t>1105</t>
   </si>
   <si>
-    <t>156465</t>
-  </si>
-  <si>
     <t>1106</t>
   </si>
   <si>
@@ -4932,16 +4935,10 @@
     <t>1112</t>
   </si>
   <si>
+    <t>7982</t>
+  </si>
+  <si>
     <t>1113</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>8482</t>
-  </si>
-  <si>
-    <t>1115</t>
   </si>
 </sst>
 </file>
@@ -5326,7 +5323,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1116"/>
+  <dimension ref="A1:V1114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -77999,10 +77996,10 @@
         <v>31</v>
       </c>
       <c r="N1069" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O1069" s="2" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="P1069" s="2" t="s">
         <v>33</v>
@@ -78067,10 +78064,10 @@
         <v>31</v>
       </c>
       <c r="N1070" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O1070" s="2" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="P1070" s="2" t="s">
         <v>33</v>
@@ -78111,16 +78108,16 @@
         <v>1583</v>
       </c>
       <c r="F1071" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1071" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="H1071" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="J1071" s="2" t="s">
         <v>28</v>
@@ -78203,10 +78200,10 @@
         <v>31</v>
       </c>
       <c r="N1072" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="O1072" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="P1072" s="2" t="s">
         <v>33</v>
@@ -78271,10 +78268,10 @@
         <v>31</v>
       </c>
       <c r="N1073" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O1073" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="P1073" s="2" t="s">
         <v>33</v>
@@ -78339,10 +78336,10 @@
         <v>31</v>
       </c>
       <c r="N1074" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O1074" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="P1074" s="2" t="s">
         <v>33</v>
@@ -78407,10 +78404,10 @@
         <v>31</v>
       </c>
       <c r="N1075" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O1075" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P1075" s="2" t="s">
         <v>33</v>
@@ -78475,10 +78472,10 @@
         <v>31</v>
       </c>
       <c r="N1076" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1076" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="P1076" s="2" t="s">
         <v>33</v>
@@ -78543,10 +78540,10 @@
         <v>31</v>
       </c>
       <c r="N1077" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O1077" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P1077" s="2" t="s">
         <v>33</v>
@@ -78611,10 +78608,10 @@
         <v>31</v>
       </c>
       <c r="N1078" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O1078" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P1078" s="2" t="s">
         <v>33</v>
@@ -78818,7 +78815,7 @@
         <v>33</v>
       </c>
       <c r="O1081" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P1081" s="2" t="s">
         <v>33</v>
@@ -78886,7 +78883,7 @@
         <v>33</v>
       </c>
       <c r="O1082" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P1082" s="2" t="s">
         <v>33</v>
@@ -78951,10 +78948,10 @@
         <v>31</v>
       </c>
       <c r="N1083" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O1083" s="2" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="P1083" s="2" t="s">
         <v>33</v>
@@ -79022,7 +79019,7 @@
         <v>33</v>
       </c>
       <c r="O1084" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P1084" s="2" t="s">
         <v>33</v>
@@ -79223,10 +79220,10 @@
         <v>31</v>
       </c>
       <c r="N1087" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O1087" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P1087" s="2" t="s">
         <v>33</v>
@@ -79294,7 +79291,7 @@
         <v>75</v>
       </c>
       <c r="O1088" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="P1088" s="2" t="s">
         <v>33</v>
@@ -79362,7 +79359,7 @@
         <v>33</v>
       </c>
       <c r="O1089" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="P1089" s="2" t="s">
         <v>33</v>
@@ -79430,7 +79427,7 @@
         <v>50</v>
       </c>
       <c r="O1090" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P1090" s="2" t="s">
         <v>33</v>
@@ -79539,16 +79536,16 @@
         <v>1583</v>
       </c>
       <c r="F1092" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G1092" s="1" t="s">
-        <v>556</v>
+        <v>659</v>
       </c>
       <c r="H1092" s="1" t="s">
-        <v>557</v>
+        <v>660</v>
       </c>
       <c r="I1092" s="1" t="s">
-        <v>557</v>
+        <v>660</v>
       </c>
       <c r="J1092" s="2" t="s">
         <v>28</v>
@@ -79566,7 +79563,7 @@
         <v>33</v>
       </c>
       <c r="O1092" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="P1092" s="2" t="s">
         <v>33</v>
@@ -79607,16 +79604,16 @@
         <v>1583</v>
       </c>
       <c r="F1093" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G1093" s="1" t="s">
-        <v>659</v>
+        <v>463</v>
       </c>
       <c r="H1093" s="1" t="s">
-        <v>660</v>
+        <v>464</v>
       </c>
       <c r="I1093" s="1" t="s">
-        <v>660</v>
+        <v>465</v>
       </c>
       <c r="J1093" s="2" t="s">
         <v>28</v>
@@ -79634,7 +79631,7 @@
         <v>33</v>
       </c>
       <c r="O1093" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P1093" s="2" t="s">
         <v>33</v>
@@ -79675,16 +79672,16 @@
         <v>1583</v>
       </c>
       <c r="F1094" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G1094" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H1094" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I1094" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J1094" s="2" t="s">
         <v>28</v>
@@ -79699,10 +79696,10 @@
         <v>31</v>
       </c>
       <c r="N1094" s="2" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="O1094" s="2" t="s">
-        <v>50</v>
+        <v>774</v>
       </c>
       <c r="P1094" s="2" t="s">
         <v>33</v>
@@ -79743,16 +79740,16 @@
         <v>1583</v>
       </c>
       <c r="F1095" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G1095" s="1" t="s">
-        <v>467</v>
+        <v>1554</v>
       </c>
       <c r="H1095" s="1" t="s">
-        <v>468</v>
+        <v>1555</v>
       </c>
       <c r="I1095" s="1" t="s">
-        <v>469</v>
+        <v>1555</v>
       </c>
       <c r="J1095" s="2" t="s">
         <v>28</v>
@@ -79767,10 +79764,10 @@
         <v>31</v>
       </c>
       <c r="N1095" s="2" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="O1095" s="2" t="s">
-        <v>922</v>
+        <v>53</v>
       </c>
       <c r="P1095" s="2" t="s">
         <v>33</v>
@@ -79811,16 +79808,16 @@
         <v>1583</v>
       </c>
       <c r="F1096" s="2" t="s">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="G1096" s="1" t="s">
-        <v>1554</v>
+        <v>41</v>
       </c>
       <c r="H1096" s="1" t="s">
-        <v>1555</v>
+        <v>42</v>
       </c>
       <c r="I1096" s="1" t="s">
-        <v>1555</v>
+        <v>42</v>
       </c>
       <c r="J1096" s="2" t="s">
         <v>28</v>
@@ -79835,7 +79832,7 @@
         <v>31</v>
       </c>
       <c r="N1096" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="O1096" s="2" t="s">
         <v>53</v>
@@ -79879,16 +79876,16 @@
         <v>1583</v>
       </c>
       <c r="F1097" s="2" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="G1097" s="1" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="H1097" s="1" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="I1097" s="1" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="J1097" s="2" t="s">
         <v>28</v>
@@ -79903,10 +79900,10 @@
         <v>31</v>
       </c>
       <c r="N1097" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O1097" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="P1097" s="2" t="s">
         <v>33</v>
@@ -79947,16 +79944,16 @@
         <v>1583</v>
       </c>
       <c r="F1098" s="2" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="G1098" s="1" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="H1098" s="1" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="I1098" s="1" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="J1098" s="2" t="s">
         <v>28</v>
@@ -79974,7 +79971,7 @@
         <v>50</v>
       </c>
       <c r="O1098" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="P1098" s="2" t="s">
         <v>33</v>
@@ -80015,16 +80012,16 @@
         <v>1583</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G1099" s="1" t="s">
-        <v>416</v>
+        <v>901</v>
       </c>
       <c r="H1099" s="1" t="s">
-        <v>417</v>
+        <v>902</v>
       </c>
       <c r="I1099" s="1" t="s">
-        <v>417</v>
+        <v>902</v>
       </c>
       <c r="J1099" s="2" t="s">
         <v>28</v>
@@ -80039,10 +80036,10 @@
         <v>31</v>
       </c>
       <c r="N1099" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1099" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O1099" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="P1099" s="2" t="s">
         <v>33</v>
@@ -80083,16 +80080,16 @@
         <v>1583</v>
       </c>
       <c r="F1100" s="2" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="G1100" s="1" t="s">
-        <v>901</v>
+        <v>325</v>
       </c>
       <c r="H1100" s="1" t="s">
-        <v>902</v>
+        <v>326</v>
       </c>
       <c r="I1100" s="1" t="s">
-        <v>902</v>
+        <v>326</v>
       </c>
       <c r="J1100" s="2" t="s">
         <v>28</v>
@@ -80107,10 +80104,10 @@
         <v>31</v>
       </c>
       <c r="N1100" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O1100" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="P1100" s="2" t="s">
         <v>33</v>
@@ -80151,16 +80148,16 @@
         <v>1583</v>
       </c>
       <c r="F1101" s="2" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="G1101" s="1" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="H1101" s="1" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="I1101" s="1" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="J1101" s="2" t="s">
         <v>28</v>
@@ -80175,13 +80172,13 @@
         <v>31</v>
       </c>
       <c r="N1101" s="2" t="s">
-        <v>50</v>
+        <v>1620</v>
       </c>
       <c r="O1101" s="2" t="s">
-        <v>50</v>
+        <v>1621</v>
       </c>
       <c r="P1101" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q1101" s="2" t="s">
         <v>33</v>
@@ -80213,22 +80210,22 @@
         <v>22</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="E1102" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1102" s="2" t="s">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="G1102" s="1" t="s">
-        <v>160</v>
+        <v>908</v>
       </c>
       <c r="H1102" s="1" t="s">
-        <v>161</v>
+        <v>909</v>
       </c>
       <c r="I1102" s="1" t="s">
-        <v>161</v>
+        <v>909</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>28</v>
@@ -80243,13 +80240,13 @@
         <v>31</v>
       </c>
       <c r="N1102" s="2" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="O1102" s="2" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="P1102" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="Q1102" s="2" t="s">
         <v>33</v>
@@ -80281,22 +80278,22 @@
         <v>22</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="E1103" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1103" s="2" t="s">
-        <v>378</v>
+        <v>176</v>
       </c>
       <c r="G1103" s="1" t="s">
-        <v>908</v>
+        <v>177</v>
       </c>
       <c r="H1103" s="1" t="s">
-        <v>909</v>
+        <v>178</v>
       </c>
       <c r="I1103" s="1" t="s">
-        <v>909</v>
+        <v>179</v>
       </c>
       <c r="J1103" s="2" t="s">
         <v>28</v>
@@ -80311,10 +80308,10 @@
         <v>31</v>
       </c>
       <c r="N1103" s="2" t="s">
-        <v>1624</v>
+        <v>33</v>
       </c>
       <c r="O1103" s="2" t="s">
-        <v>1625</v>
+        <v>33</v>
       </c>
       <c r="P1103" s="2" t="s">
         <v>33</v>
@@ -80326,7 +80323,7 @@
         <v>33</v>
       </c>
       <c r="S1103" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="T1103" s="2" t="s">
         <v>33</v>
@@ -80355,16 +80352,16 @@
         <v>1583</v>
       </c>
       <c r="F1104" s="2" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="G1104" s="1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="H1104" s="1" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="I1104" s="1" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="J1104" s="2" t="s">
         <v>28</v>
@@ -80379,10 +80376,10 @@
         <v>31</v>
       </c>
       <c r="N1104" s="2" t="s">
-        <v>50</v>
+        <v>1627</v>
       </c>
       <c r="O1104" s="2" t="s">
-        <v>33</v>
+        <v>1628</v>
       </c>
       <c r="P1104" s="2" t="s">
         <v>33</v>
@@ -80394,7 +80391,7 @@
         <v>33</v>
       </c>
       <c r="S1104" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T1104" s="2" t="s">
         <v>33</v>
@@ -80417,22 +80414,22 @@
         <v>22</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E1105" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1105" s="2" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G1105" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H1105" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="I1105" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J1105" s="2" t="s">
         <v>28</v>
@@ -80447,13 +80444,13 @@
         <v>31</v>
       </c>
       <c r="N1105" s="2" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="O1105" s="2" t="s">
-        <v>1629</v>
+        <v>33</v>
       </c>
       <c r="P1105" s="2" t="s">
-        <v>33</v>
+        <v>1631</v>
       </c>
       <c r="Q1105" s="2" t="s">
         <v>33</v>
@@ -80485,22 +80482,22 @@
         <v>22</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="E1106" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1106" s="2" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="G1106" s="1" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="H1106" s="1" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="I1106" s="1" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="J1106" s="2" t="s">
         <v>28</v>
@@ -80515,13 +80512,13 @@
         <v>31</v>
       </c>
       <c r="N1106" s="2" t="s">
-        <v>1631</v>
+        <v>33</v>
       </c>
       <c r="O1106" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P1106" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="Q1106" s="2" t="s">
         <v>33</v>
@@ -80553,22 +80550,22 @@
         <v>22</v>
       </c>
       <c r="D1107" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="E1107" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1107" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G1107" s="1" t="s">
-        <v>1455</v>
+        <v>717</v>
       </c>
       <c r="H1107" s="1" t="s">
-        <v>1456</v>
+        <v>718</v>
       </c>
       <c r="I1107" s="1" t="s">
-        <v>1457</v>
+        <v>718</v>
       </c>
       <c r="J1107" s="2" t="s">
         <v>28</v>
@@ -80621,22 +80618,22 @@
         <v>22</v>
       </c>
       <c r="D1108" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E1108" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G1108" s="1" t="s">
-        <v>427</v>
+        <v>1049</v>
       </c>
       <c r="H1108" s="1" t="s">
-        <v>428</v>
+        <v>1050</v>
       </c>
       <c r="I1108" s="1" t="s">
-        <v>428</v>
+        <v>1051</v>
       </c>
       <c r="J1108" s="2" t="s">
         <v>28</v>
@@ -80651,10 +80648,10 @@
         <v>31</v>
       </c>
       <c r="N1108" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O1108" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1108" s="2" t="s">
         <v>33</v>
@@ -80689,22 +80686,22 @@
         <v>22</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="G1109" s="1" t="s">
-        <v>717</v>
+        <v>99</v>
       </c>
       <c r="H1109" s="1" t="s">
-        <v>718</v>
+        <v>100</v>
       </c>
       <c r="I1109" s="1" t="s">
-        <v>718</v>
+        <v>100</v>
       </c>
       <c r="J1109" s="2" t="s">
         <v>28</v>
@@ -80719,10 +80716,10 @@
         <v>31</v>
       </c>
       <c r="N1109" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O1109" s="2" t="s">
-        <v>33</v>
+        <v>458</v>
       </c>
       <c r="P1109" s="2" t="s">
         <v>33</v>
@@ -80757,22 +80754,22 @@
         <v>22</v>
       </c>
       <c r="D1110" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="E1110" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1110" s="2" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="G1110" s="1" t="s">
-        <v>99</v>
+        <v>483</v>
       </c>
       <c r="H1110" s="1" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="I1110" s="1" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="J1110" s="2" t="s">
         <v>28</v>
@@ -80787,10 +80784,10 @@
         <v>31</v>
       </c>
       <c r="N1110" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O1110" s="2" t="s">
-        <v>560</v>
+        <v>69</v>
       </c>
       <c r="P1110" s="2" t="s">
         <v>33</v>
@@ -80831,16 +80828,16 @@
         <v>1583</v>
       </c>
       <c r="F1111" s="2" t="s">
-        <v>402</v>
+        <v>64</v>
       </c>
       <c r="G1111" s="1" t="s">
-        <v>483</v>
+        <v>1521</v>
       </c>
       <c r="H1111" s="1" t="s">
-        <v>484</v>
+        <v>1522</v>
       </c>
       <c r="I1111" s="1" t="s">
-        <v>484</v>
+        <v>1522</v>
       </c>
       <c r="J1111" s="2" t="s">
         <v>28</v>
@@ -80855,10 +80852,10 @@
         <v>31</v>
       </c>
       <c r="N1111" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O1111" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="P1111" s="2" t="s">
         <v>33</v>
@@ -80893,22 +80890,22 @@
         <v>22</v>
       </c>
       <c r="D1112" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="E1112" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1112" s="2" t="s">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="G1112" s="1" t="s">
-        <v>46</v>
+        <v>635</v>
       </c>
       <c r="H1112" s="1" t="s">
-        <v>47</v>
+        <v>636</v>
       </c>
       <c r="I1112" s="1" t="s">
-        <v>48</v>
+        <v>636</v>
       </c>
       <c r="J1112" s="2" t="s">
         <v>28</v>
@@ -80926,7 +80923,7 @@
         <v>33</v>
       </c>
       <c r="O1112" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P1112" s="2" t="s">
         <v>33</v>
@@ -80961,22 +80958,22 @@
         <v>22</v>
       </c>
       <c r="D1113" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E1113" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1113" s="2" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="G1113" s="1" t="s">
-        <v>1521</v>
+        <v>287</v>
       </c>
       <c r="H1113" s="1" t="s">
-        <v>1522</v>
+        <v>288</v>
       </c>
       <c r="I1113" s="1" t="s">
-        <v>1522</v>
+        <v>288</v>
       </c>
       <c r="J1113" s="2" t="s">
         <v>28</v>
@@ -80991,10 +80988,10 @@
         <v>31</v>
       </c>
       <c r="N1113" s="2" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="O1113" s="2" t="s">
-        <v>60</v>
+        <v>1639</v>
       </c>
       <c r="P1113" s="2" t="s">
         <v>33</v>
@@ -81029,22 +81026,22 @@
         <v>22</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E1114" s="2" t="s">
         <v>1583</v>
       </c>
       <c r="F1114" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G1114" s="1" t="s">
-        <v>635</v>
+        <v>432</v>
       </c>
       <c r="H1114" s="1" t="s">
-        <v>636</v>
+        <v>433</v>
       </c>
       <c r="I1114" s="1" t="s">
-        <v>636</v>
+        <v>434</v>
       </c>
       <c r="J1114" s="2" t="s">
         <v>28</v>
@@ -81059,10 +81056,10 @@
         <v>31</v>
       </c>
       <c r="N1114" s="2" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="O1114" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P1114" s="2" t="s">
         <v>33</v>
@@ -81083,142 +81080,6 @@
         <v>34</v>
       </c>
       <c r="V1114" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1115" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E1115" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="F1115" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1115" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1115" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1115" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1115" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1115" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1115" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1115" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="P1115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1115" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1116" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E1116" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="F1116" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1116" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H1116" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I1116" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J1116" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1116" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1116" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1116" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1116" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1116" s="2" t="s">
         <v>33</v>
       </c>
     </row>
